--- a/biology/Botanique/Angraecum_eichlerianum/Angraecum_eichlerianum.xlsx
+++ b/biology/Botanique/Angraecum_eichlerianum/Angraecum_eichlerianum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Angraecum eichlerianum Kraenzlin est une espèce de plantes herbacées appartenant à la famille des orchidées et au genre Angraecum.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son épithète spécifique eichlerianum rend hommage au botaniste allemand August Wilhelm Eichler.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Tige atteignant 5 m de longueur, pendante, comprimée latéralement. Entre-nœuds distants de 6 à 6 cm. Feuilles nombreuses, tordues à la base, inégalement bilobées, sommet des lobes arrondis. Inflorescence lâche, pendante, de 4 à 20 cm de long, composée de 1 à 4 fleurs. Fleurs réupinées, de couleur verte. Labelle vert à lobes latéraux blancs ou entièrement blanc, rhombiformes, trilobé au sommet, canaliculés, avec un très faible épaississement le long de la nervure médiane. Bractées florales ovales à triangulaires, minces, glabres. Éperon droit ou genouillé vers le milieu, comprimé vers le milieu, moitié basale étroitement conique.
 </t>
@@ -573,7 +589,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On la trouve en Afrique, au Nigeria, au Cameroun, en République du Congo, au Gabon, en Guinée équatoriale, en République démocratique du Congo et en Angola.
 </t>
@@ -604,7 +622,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est épiphyte des forêts riveraines, affectionne les forêts atlantiques à Caesalpinioideae et les cacaoyères.
 </t>
@@ -635,12 +655,14 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (7 décembre 2017)[2] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (7 décembre 2017) :
 variété Angraecum eichlerianum var. curvicalcaratum Szlach. &amp; Olszewski
 variété Angraecum eichlerianum var. eichlerianum
-Selon Tropicos                                           (7 décembre 2017)[3] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (7 décembre 2017) (Attention liste brute contenant possiblement des synonymes) :
 variété Angraecum eichlerianum var. curvicalcaratum Szlach. &amp; Olszewski
 variété Angraecum eichlerianum var. eichlerianum</t>
         </is>
